--- a/natmiOut/OldD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.132630315750208</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H2">
-        <v>0.132630315750208</v>
+        <v>0.03712</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05073339274096995</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07421743789887873</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N2">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O2">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P2">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q2">
-        <v>0.8764760657585554</v>
+        <v>0.081938224</v>
       </c>
       <c r="R2">
-        <v>0.8764760657585554</v>
+        <v>0.491629344</v>
       </c>
       <c r="S2">
-        <v>0.1777172903528153</v>
+        <v>0.008348993965368529</v>
       </c>
       <c r="T2">
-        <v>0.1777172903528153</v>
+        <v>0.009165170302484014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.132630315750208</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H3">
-        <v>0.132630315750208</v>
+        <v>0.03712</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05073339274096995</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07421743789887873</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N3">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O3">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P3">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q3">
-        <v>0.5132215890174923</v>
+        <v>0.05131974456888889</v>
       </c>
       <c r="R3">
-        <v>0.5132215890174923</v>
+        <v>0.46187770112</v>
       </c>
       <c r="S3">
-        <v>0.1040625679513766</v>
+        <v>0.005229161883102417</v>
       </c>
       <c r="T3">
-        <v>0.1040625679513766</v>
+        <v>0.008610527100035369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.132630315750208</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H4">
-        <v>0.132630315750208</v>
+        <v>0.03712</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05073339274096995</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07421743789887873</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N4">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O4">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P4">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q4">
-        <v>0.4570194966294917</v>
+        <v>0.06507017628444445</v>
       </c>
       <c r="R4">
-        <v>0.4570194966294917</v>
+        <v>0.58563158656</v>
       </c>
       <c r="S4">
-        <v>0.09266683912139452</v>
+        <v>0.006630245111540288</v>
       </c>
       <c r="T4">
-        <v>0.09266683912139452</v>
+        <v>0.01091760142237626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.132630315750208</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H5">
-        <v>0.132630315750208</v>
+        <v>0.03712</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05073339274096995</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.07421743789887873</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N5">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O5">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P5">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q5">
-        <v>1.307038021542522</v>
+        <v>0.1266989243733333</v>
       </c>
       <c r="R5">
-        <v>1.307038021542522</v>
+        <v>1.14029031936</v>
       </c>
       <c r="S5">
-        <v>0.2650195078351736</v>
+        <v>0.01290983015462531</v>
       </c>
       <c r="T5">
-        <v>0.2650195078351736</v>
+        <v>0.02125779329235539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.132630315750208</v>
+        <v>0.01237333333333333</v>
       </c>
       <c r="H6">
-        <v>0.132630315750208</v>
+        <v>0.03712</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.05073339274096995</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.07421743789887873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N6">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O6">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P6">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q6">
-        <v>0.8966006519861615</v>
+        <v>0.08813529870222221</v>
       </c>
       <c r="R6">
-        <v>0.8966006519861615</v>
+        <v>0.7932176883199998</v>
       </c>
       <c r="S6">
-        <v>0.1817978204135494</v>
+        <v>0.008980437225498151</v>
       </c>
       <c r="T6">
-        <v>0.1817978204135494</v>
+        <v>0.01478751276570563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01237333333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.03712</v>
+      </c>
+      <c r="I7">
+        <v>0.05073339274096995</v>
+      </c>
+      <c r="J7">
+        <v>0.07421743789887873</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.848795</v>
+      </c>
+      <c r="N7">
+        <v>13.69759</v>
+      </c>
+      <c r="O7">
+        <v>0.1701980477615928</v>
+      </c>
+      <c r="P7">
+        <v>0.1277170606298344</v>
+      </c>
+      <c r="Q7">
+        <v>0.08474242346666666</v>
+      </c>
+      <c r="R7">
+        <v>0.5084545408</v>
+      </c>
+      <c r="S7">
+        <v>0.008634724400835249</v>
+      </c>
+      <c r="T7">
+        <v>0.009478833015922065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.231516</v>
+      </c>
+      <c r="H8">
+        <v>0.463032</v>
+      </c>
+      <c r="I8">
+        <v>0.94926660725903</v>
+      </c>
+      <c r="J8">
+        <v>0.9257825621011212</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.6221625</v>
+      </c>
+      <c r="N8">
+        <v>13.244325</v>
+      </c>
+      <c r="O8">
+        <v>0.1645660484012193</v>
+      </c>
+      <c r="P8">
+        <v>0.1234907935648703</v>
+      </c>
+      <c r="Q8">
+        <v>1.53313657335</v>
+      </c>
+      <c r="R8">
+        <v>6.1325462934</v>
+      </c>
+      <c r="S8">
+        <v>0.1562170544358508</v>
+      </c>
+      <c r="T8">
+        <v>0.1143256232623863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.231516</v>
+      </c>
+      <c r="H9">
+        <v>0.463032</v>
+      </c>
+      <c r="I9">
+        <v>0.94926660725903</v>
+      </c>
+      <c r="J9">
+        <v>0.9257825621011212</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.147608666666667</v>
+      </c>
+      <c r="N9">
+        <v>12.442826</v>
+      </c>
+      <c r="O9">
+        <v>0.1030714013115781</v>
+      </c>
+      <c r="P9">
+        <v>0.1160175740877395</v>
+      </c>
+      <c r="Q9">
+        <v>0.960237768072</v>
+      </c>
+      <c r="R9">
+        <v>5.761426608432</v>
+      </c>
+      <c r="S9">
+        <v>0.09784223942847568</v>
+      </c>
+      <c r="T9">
+        <v>0.1074070469877041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.231516</v>
+      </c>
+      <c r="H10">
+        <v>0.463032</v>
+      </c>
+      <c r="I10">
+        <v>0.94926660725903</v>
+      </c>
+      <c r="J10">
+        <v>0.9257825621011212</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.258904333333334</v>
+      </c>
+      <c r="N10">
+        <v>15.776713</v>
+      </c>
+      <c r="O10">
+        <v>0.1306879897702171</v>
+      </c>
+      <c r="P10">
+        <v>0.147102914509815</v>
+      </c>
+      <c r="Q10">
+        <v>1.217520495636</v>
+      </c>
+      <c r="R10">
+        <v>7.305122973816</v>
+      </c>
+      <c r="S10">
+        <v>0.1240577446586768</v>
+      </c>
+      <c r="T10">
+        <v>0.1361853130874387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.231516</v>
+      </c>
+      <c r="H11">
+        <v>0.463032</v>
+      </c>
+      <c r="I11">
+        <v>0.94926660725903</v>
+      </c>
+      <c r="J11">
+        <v>0.9257825621011212</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.239676</v>
+      </c>
+      <c r="N11">
+        <v>30.719028</v>
+      </c>
+      <c r="O11">
+        <v>0.2544641597406895</v>
+      </c>
+      <c r="P11">
+        <v>0.2864258575096481</v>
+      </c>
+      <c r="Q11">
+        <v>2.370648828816</v>
+      </c>
+      <c r="R11">
+        <v>14.223892972896</v>
+      </c>
+      <c r="S11">
+        <v>0.2415543295860642</v>
+      </c>
+      <c r="T11">
+        <v>0.2651680642172927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.132630315750208</v>
-      </c>
-      <c r="H7">
-        <v>0.132630315750208</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.64629397379803</v>
-      </c>
-      <c r="N7">
-        <v>6.64629397379803</v>
-      </c>
-      <c r="O7">
-        <v>0.1787359743256906</v>
-      </c>
-      <c r="P7">
-        <v>0.1787359743256906</v>
-      </c>
-      <c r="Q7">
-        <v>0.8815000683135373</v>
-      </c>
-      <c r="R7">
-        <v>0.8815000683135373</v>
-      </c>
-      <c r="S7">
-        <v>0.1787359743256906</v>
-      </c>
-      <c r="T7">
-        <v>0.1787359743256906</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.231516</v>
+      </c>
+      <c r="H12">
+        <v>0.463032</v>
+      </c>
+      <c r="I12">
+        <v>0.94926660725903</v>
+      </c>
+      <c r="J12">
+        <v>0.9257825621011212</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.123003666666666</v>
+      </c>
+      <c r="N12">
+        <v>21.369011</v>
+      </c>
+      <c r="O12">
+        <v>0.1770123530147031</v>
+      </c>
+      <c r="P12">
+        <v>0.1992457996980927</v>
+      </c>
+      <c r="Q12">
+        <v>1.649089316892</v>
+      </c>
+      <c r="R12">
+        <v>9.894535901351999</v>
+      </c>
+      <c r="S12">
+        <v>0.168031915789205</v>
+      </c>
+      <c r="T12">
+        <v>0.1844582869323871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.231516</v>
+      </c>
+      <c r="H13">
+        <v>0.463032</v>
+      </c>
+      <c r="I13">
+        <v>0.94926660725903</v>
+      </c>
+      <c r="J13">
+        <v>0.9257825621011212</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.848795</v>
+      </c>
+      <c r="N13">
+        <v>13.69759</v>
+      </c>
+      <c r="O13">
+        <v>0.1701980477615928</v>
+      </c>
+      <c r="P13">
+        <v>0.1277170606298344</v>
+      </c>
+      <c r="Q13">
+        <v>1.58560562322</v>
+      </c>
+      <c r="R13">
+        <v>6.34242249288</v>
+      </c>
+      <c r="S13">
+        <v>0.1615633233607575</v>
+      </c>
+      <c r="T13">
+        <v>0.1182382276139123</v>
       </c>
     </row>
   </sheetData>
